--- a/public/shipment_line_uploads/shipment_lines2.xlsx
+++ b/public/shipment_line_uploads/shipment_lines2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="33">
   <si>
     <t>shipment_line_number</t>
   </si>
@@ -66,55 +66,73 @@
     <t>LOC2</t>
   </si>
   <si>
+    <t>product_code</t>
+  </si>
+  <si>
+    <t>shipment_type</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>SLJPTST0001</t>
+  </si>
+  <si>
+    <t>Inbound</t>
+  </si>
+  <si>
+    <t>in_transit</t>
+  </si>
+  <si>
+    <t>planned</t>
+  </si>
+  <si>
+    <t>OLMULTILEG0010</t>
+  </si>
+  <si>
+    <t>Truck</t>
+  </si>
+  <si>
     <t>DHL</t>
   </si>
   <si>
     <t>GT Nexus</t>
   </si>
   <si>
-    <t>product_code</t>
-  </si>
-  <si>
-    <t>OLLEG002</t>
+    <t>1100ROWT SKID ENGINE INT COMB NOI</t>
+  </si>
+  <si>
+    <t>SLJPTST0002</t>
+  </si>
+  <si>
+    <t>SLJPTST0003</t>
+  </si>
+  <si>
+    <t>SLJPTST0004</t>
+  </si>
+  <si>
+    <t>SLJPTST0005</t>
+  </si>
+  <si>
+    <t>SLJPTST0006</t>
   </si>
   <si>
     <t>LOC3</t>
   </si>
   <si>
+    <t>Ocean</t>
+  </si>
+  <si>
     <t>LOC4</t>
-  </si>
-  <si>
-    <t>SLLEG02001</t>
-  </si>
-  <si>
-    <t>SLLEG02002</t>
-  </si>
-  <si>
-    <t>Truck</t>
-  </si>
-  <si>
-    <t>1100ROWT SKID ENGINE INT COMB NOI</t>
-  </si>
-  <si>
-    <t>shipment_type</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Inbound</t>
-  </si>
-  <si>
-    <t>planned</t>
-  </si>
-  <si>
-    <t>SLLEG02003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="m/d/yy;@"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,11 +176,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -443,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N105"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,8 +474,8 @@
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" style="4" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
@@ -472,18 +491,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -508,544 +527,272 @@
         <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>150</v>
-      </c>
-      <c r="E2" s="2">
-        <v>41931</v>
-      </c>
-      <c r="F2" s="2">
-        <v>41933</v>
-      </c>
-      <c r="G2" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E2" s="4">
+        <v>41939</v>
+      </c>
+      <c r="F2" s="4">
+        <v>41944</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
-        <v>16</v>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>150</v>
-      </c>
-      <c r="E3" s="2">
-        <v>41934</v>
-      </c>
-      <c r="F3" s="2">
-        <v>41937</v>
+        <v>280</v>
+      </c>
+      <c r="E3" s="4">
+        <v>41945</v>
+      </c>
+      <c r="F3" s="4">
+        <v>41963</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
       </c>
       <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>150</v>
-      </c>
-      <c r="E4" s="2">
-        <v>41938</v>
-      </c>
-      <c r="F4" s="2">
-        <v>41942</v>
+        <v>280</v>
+      </c>
+      <c r="E4" s="4">
+        <v>41965</v>
+      </c>
+      <c r="F4" s="4">
+        <v>41967</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>16</v>
+        <v>32</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="J4" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="L4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5" s="4">
+        <v>41939</v>
+      </c>
+      <c r="F5" s="4">
+        <v>41944</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6">
+        <v>200</v>
+      </c>
+      <c r="E6" s="4">
+        <v>41945</v>
+      </c>
+      <c r="F6" s="4">
+        <v>41963</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-    </row>
-    <row r="57" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-    </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-    </row>
-    <row r="71" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-    </row>
-    <row r="73" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-    </row>
-    <row r="74" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-    </row>
-    <row r="75" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-    </row>
-    <row r="76" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-    </row>
-    <row r="77" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-    </row>
-    <row r="78" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-    </row>
-    <row r="79" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-    </row>
-    <row r="80" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-    </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-    </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-    </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-    </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-    </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-    </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-    </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-    </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-    </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-    </row>
-    <row r="90" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-    </row>
-    <row r="91" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-    </row>
-    <row r="92" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-    </row>
-    <row r="93" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-    </row>
-    <row r="94" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-    </row>
-    <row r="95" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-    </row>
-    <row r="96" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-    </row>
-    <row r="97" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-    </row>
-    <row r="98" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-    </row>
-    <row r="99" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-    </row>
-    <row r="100" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-    </row>
-    <row r="101" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-    </row>
-    <row r="102" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-    </row>
-    <row r="103" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-    </row>
-    <row r="104" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-    </row>
-    <row r="105" spans="5:6" x14ac:dyDescent="0.25">
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>200</v>
+      </c>
+      <c r="E7" s="4">
+        <v>41965</v>
+      </c>
+      <c r="F7" s="4">
+        <v>41967</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -1260,6 +1007,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1268,7 +1021,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006292647304D1DC41B70672E1B634ECB1" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ab72e7744b03c1bb3060bcb8eb392be7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3474aaf80374249d6dbb2c8881874f7c">
     <xsd:element name="properties">
@@ -1382,13 +1135,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39C2D14A-D5C9-4406-9E1F-500BEE5D575B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C17BB723-A23E-4D0D-BD89-1C505B4AE736}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1396,7 +1158,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18C54C41-4C7A-46DF-876B-4B2F5DF87301}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1410,19 +1172,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39C2D14A-D5C9-4406-9E1F-500BEE5D575B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>